--- a/07_html_excel_rule_extraction/output/rules_report.xlsx
+++ b/07_html_excel_rule_extraction/output/rules_report.xlsx
@@ -52,7 +52,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +427,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,14 +468,16 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>IF (Stock_Level &lt; Minimum_Threshold) THEN
+          <t xml:space="preserve">
+                IF (Stock_Level &lt; Minimum_Threshold) THEN
                     ALERT Staff "Restock Required"
-                ENDIF</t>
+                ENDIF
+            </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Component</t>
+          <t>Component Rule</t>
         </is>
       </c>
     </row>
@@ -492,11 +494,13 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>IF (Aisle_Crowd_Flow = "High") THEN
+          <t xml:space="preserve">
+                IF (Aisle_Crowd_Flow = "High") THEN
                     DISPLAY "Popular Items" on Front Page
                 ELSE
                     DISPLAY "Offers" on Front Page
-                ENDIF</t>
+                ENDIF
+            </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,11 +522,13 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>IF (Queue_Length &gt; 5) THEN
+          <t xml:space="preserve">
+                IF (Queue_Length &gt; 5) THEN
                     OPEN New_Checkout_Counter
                 ELSE
                     MAINTAIN Current_Setup
-                ENDIF</t>
+                ENDIF
+            </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,9 +550,11 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>FOR Each Product IN Customer_Cart
+          <t xml:space="preserve">
+                FOR Each Product IN Customer_Cart
                     ADD Product_Details TO Invoice
-                GENERATE Invoice</t>
+                GENERATE Invoice
+            </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/07_html_excel_rule_extraction/output/rules_report.xlsx
+++ b/07_html_excel_rule_extraction/output/rules_report.xlsx
@@ -1,43 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denny\Dev\zCompany\Jackson\05SourceCode\tools007\07_html_excel_rule_extraction\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25085CC-BA45-4D70-80ED-76B93302FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rules" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>Rule ID</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>20202</t>
+  </si>
+  <si>
+    <t>R10101Discount_Applied_Rule</t>
+  </si>
+  <si>
+    <t>R20202Stock_Level_Check_Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        IF(PromotionActive = TRUE AND Category = "Fruits") THEN
+            Discount = 10%
+        ELSE
+            Discount = 0%
+        ENDIF
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        IF(Stock &lt; Reorder_Level) THEN
+            NotifySupplier = TRUE
+        ELSE
+            StockStatus = "Sufficient"
+        ENDIF
+        </t>
+  </si>
+  <si>
+    <t>Page Design</t>
+  </si>
+  <si>
+    <t>Function ID</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Function Formula</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>F201Supplier_Contact_Lookup_Fn</t>
+  </si>
+  <si>
+    <t>F301Calculate_Total_Price_Fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        dim supplier as string
+        IF getOS() = "WINDOWS" THEN
+            supplier = FileMap("Supplier_List", "C:\\Grocery\\Suppliers.txt", True)
+        ELSE
+            supplier = "/home/grocery/resources/Suppliers/Suppliers_List.txt"
+        ENDIF
+        Print("Contact supplier at: " + supplier)
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        dim totalPrice as double
+        totalPrice = Quantity * PricePerUnit
+        IF(Discount &gt; 0) THEN
+            totalPrice = totalPrice - (totalPrice * Discount / 100)
+        ENDIF
+        Print("Total Price: $" + totalPrice)
+        </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Courier New"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,95 +147,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -239,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,156 +477,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Rule ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Rule Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Component Stock Threshold Rule</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                IF (Stock_Level &lt; Minimum_Threshold) THEN
-                    ALERT Staff "Restock Required"
-                ENDIF
-            </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Component Rule</t>
-        </is>
+    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>R202</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Page Layout Optimization Rule</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                IF (Aisle_Crowd_Flow = "High") THEN
-                    DISPLAY "Popular Items" on Front Page
-                ELSE
-                    DISPLAY "Offers" on Front Page
-                ENDIF
-            </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Page Rule</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>R303</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Customer Checkout Queue Rule</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                IF (Queue_Length &gt; 5) THEN
-                    OPEN New_Checkout_Counter
-                ELSE
-                    MAINTAIN Current_Setup
-                ENDIF
-            </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Queue Rule</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>R404</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Invoice Generation Rule</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                FOR Each Product IN Customer_Cart
-                    ADD Product_Details TO Invoice
-                GENERATE Invoice
-            </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Uncategorized</t>
-        </is>
+    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>